--- a/test.xlsx
+++ b/test.xlsx
@@ -28,16 +28,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <rPh sb="0" eb="1">
-      <t>xu'hao</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -128,6 +121,14 @@
     <rPh sb="0" eb="1">
       <t>er'liu'z</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ï</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,7 +543,7 @@
   <dimension ref="A1:Z163"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.59765625" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -565,25 +566,25 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
@@ -594,13 +595,13 @@
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="2"/>
@@ -611,13 +612,13 @@
     </row>
     <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="2"/>
@@ -628,13 +629,13 @@
     </row>
     <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="2"/>
@@ -645,13 +646,13 @@
     </row>
     <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="2"/>
@@ -818,7 +819,9 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E21" s="6"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
